--- a/2.xlsx
+++ b/2.xlsx
@@ -101,6 +101,174 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="3" name="Image 3"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>60</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="4" name="Image 4"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>75</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="5" name="Image 5"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>90</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="6" name="Image 6"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>105</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="7" name="Image 7"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>120</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="8" name="Image 8"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -403,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:P32"/>
+  <dimension ref="B2:AC122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -414,158 +582,81 @@
     <col customWidth="1" max="1" min="1" width="30"/>
     <col customWidth="1" max="1" min="1" width="30"/>
     <col customWidth="1" max="2" min="2" width="30"/>
-    <col customWidth="1" max="2" min="2" width="30"/>
-    <col customWidth="1" max="3" min="3" width="30"/>
     <col customWidth="1" max="3" min="3" width="30"/>
     <col customWidth="1" max="4" min="4" width="30"/>
-    <col customWidth="1" max="4" min="4" width="30"/>
-    <col customWidth="1" max="5" min="5" width="30"/>
     <col customWidth="1" max="5" min="5" width="30"/>
     <col customWidth="1" max="6" min="6" width="30"/>
-    <col customWidth="1" max="6" min="6" width="30"/>
-    <col customWidth="1" max="7" min="7" width="30"/>
     <col customWidth="1" max="7" min="7" width="30"/>
     <col customWidth="1" max="8" min="8" width="30"/>
-    <col customWidth="1" max="8" min="8" width="30"/>
-    <col customWidth="1" max="9" min="9" width="30"/>
     <col customWidth="1" max="9" min="9" width="30"/>
     <col customWidth="1" max="10" min="10" width="30"/>
-    <col customWidth="1" max="10" min="10" width="30"/>
-    <col customWidth="1" max="11" min="11" width="30"/>
     <col customWidth="1" max="11" min="11" width="30"/>
     <col customWidth="1" max="12" min="12" width="30"/>
-    <col customWidth="1" max="12" min="12" width="30"/>
-    <col customWidth="1" max="13" min="13" width="30"/>
     <col customWidth="1" max="13" min="13" width="30"/>
     <col customWidth="1" max="14" min="14" width="30"/>
-    <col customWidth="1" max="14" min="14" width="30"/>
-    <col customWidth="1" max="15" min="15" width="30"/>
     <col customWidth="1" max="15" min="15" width="30"/>
     <col customWidth="1" max="16" min="16" width="30"/>
-    <col customWidth="1" max="16" min="16" width="30"/>
-    <col customWidth="1" max="17" min="17" width="30"/>
     <col customWidth="1" max="17" min="17" width="30"/>
     <col customWidth="1" max="18" min="18" width="30"/>
-    <col customWidth="1" max="18" min="18" width="30"/>
-    <col customWidth="1" max="19" min="19" width="30"/>
     <col customWidth="1" max="19" min="19" width="30"/>
     <col customWidth="1" max="20" min="20" width="30"/>
-    <col customWidth="1" max="20" min="20" width="30"/>
-    <col customWidth="1" max="21" min="21" width="30"/>
     <col customWidth="1" max="21" min="21" width="30"/>
     <col customWidth="1" max="22" min="22" width="30"/>
-    <col customWidth="1" max="22" min="22" width="30"/>
-    <col customWidth="1" max="23" min="23" width="30"/>
     <col customWidth="1" max="23" min="23" width="30"/>
     <col customWidth="1" max="24" min="24" width="30"/>
-    <col customWidth="1" max="24" min="24" width="30"/>
-    <col customWidth="1" max="25" min="25" width="30"/>
     <col customWidth="1" max="25" min="25" width="30"/>
     <col customWidth="1" max="26" min="26" width="30"/>
-    <col customWidth="1" max="26" min="26" width="30"/>
-    <col customWidth="1" max="27" min="27" width="30"/>
     <col customWidth="1" max="27" min="27" width="30"/>
     <col customWidth="1" max="28" min="28" width="30"/>
-    <col customWidth="1" max="28" min="28" width="30"/>
-    <col customWidth="1" max="29" min="29" width="30"/>
     <col customWidth="1" max="29" min="29" width="30"/>
     <col customWidth="1" max="30" min="30" width="30"/>
-    <col customWidth="1" max="30" min="30" width="30"/>
-    <col customWidth="1" max="31" min="31" width="30"/>
     <col customWidth="1" max="31" min="31" width="30"/>
     <col customWidth="1" max="32" min="32" width="30"/>
-    <col customWidth="1" max="32" min="32" width="30"/>
-    <col customWidth="1" max="33" min="33" width="30"/>
     <col customWidth="1" max="33" min="33" width="30"/>
     <col customWidth="1" max="34" min="34" width="30"/>
-    <col customWidth="1" max="34" min="34" width="30"/>
-    <col customWidth="1" max="35" min="35" width="30"/>
     <col customWidth="1" max="35" min="35" width="30"/>
     <col customWidth="1" max="36" min="36" width="30"/>
-    <col customWidth="1" max="36" min="36" width="30"/>
-    <col customWidth="1" max="37" min="37" width="30"/>
     <col customWidth="1" max="37" min="37" width="30"/>
     <col customWidth="1" max="38" min="38" width="30"/>
-    <col customWidth="1" max="38" min="38" width="30"/>
-    <col customWidth="1" max="39" min="39" width="30"/>
     <col customWidth="1" max="39" min="39" width="30"/>
     <col customWidth="1" max="40" min="40" width="30"/>
-    <col customWidth="1" max="40" min="40" width="30"/>
-    <col customWidth="1" max="41" min="41" width="30"/>
     <col customWidth="1" max="41" min="41" width="30"/>
     <col customWidth="1" max="42" min="42" width="30"/>
-    <col customWidth="1" max="42" min="42" width="30"/>
-    <col customWidth="1" max="43" min="43" width="30"/>
     <col customWidth="1" max="43" min="43" width="30"/>
     <col customWidth="1" max="44" min="44" width="30"/>
-    <col customWidth="1" max="44" min="44" width="30"/>
-    <col customWidth="1" max="45" min="45" width="30"/>
     <col customWidth="1" max="45" min="45" width="30"/>
     <col customWidth="1" max="46" min="46" width="30"/>
-    <col customWidth="1" max="46" min="46" width="30"/>
-    <col customWidth="1" max="47" min="47" width="30"/>
     <col customWidth="1" max="47" min="47" width="30"/>
     <col customWidth="1" max="48" min="48" width="30"/>
-    <col customWidth="1" max="48" min="48" width="30"/>
-    <col customWidth="1" max="49" min="49" width="30"/>
     <col customWidth="1" max="49" min="49" width="30"/>
     <col customWidth="1" max="50" min="50" width="30"/>
-    <col customWidth="1" max="50" min="50" width="30"/>
-    <col customWidth="1" max="51" min="51" width="30"/>
     <col customWidth="1" max="51" min="51" width="30"/>
     <col customWidth="1" max="52" min="52" width="30"/>
-    <col customWidth="1" max="52" min="52" width="30"/>
-    <col customWidth="1" max="53" min="53" width="30"/>
     <col customWidth="1" max="53" min="53" width="30"/>
     <col customWidth="1" max="54" min="54" width="30"/>
-    <col customWidth="1" max="54" min="54" width="30"/>
-    <col customWidth="1" max="55" min="55" width="30"/>
     <col customWidth="1" max="55" min="55" width="30"/>
     <col customWidth="1" max="56" min="56" width="30"/>
-    <col customWidth="1" max="56" min="56" width="30"/>
-    <col customWidth="1" max="57" min="57" width="30"/>
     <col customWidth="1" max="57" min="57" width="30"/>
     <col customWidth="1" max="58" min="58" width="30"/>
-    <col customWidth="1" max="58" min="58" width="30"/>
-    <col customWidth="1" max="59" min="59" width="30"/>
     <col customWidth="1" max="59" min="59" width="30"/>
     <col customWidth="1" max="60" min="60" width="30"/>
-    <col customWidth="1" max="60" min="60" width="30"/>
-    <col customWidth="1" max="61" min="61" width="30"/>
     <col customWidth="1" max="61" min="61" width="30"/>
     <col customWidth="1" max="62" min="62" width="30"/>
-    <col customWidth="1" max="62" min="62" width="30"/>
-    <col customWidth="1" max="63" min="63" width="30"/>
     <col customWidth="1" max="63" min="63" width="30"/>
     <col customWidth="1" max="64" min="64" width="30"/>
-    <col customWidth="1" max="64" min="64" width="30"/>
-    <col customWidth="1" max="65" min="65" width="30"/>
     <col customWidth="1" max="65" min="65" width="30"/>
     <col customWidth="1" max="66" min="66" width="30"/>
-    <col customWidth="1" max="66" min="66" width="30"/>
-    <col customWidth="1" max="67" min="67" width="30"/>
     <col customWidth="1" max="67" min="67" width="30"/>
     <col customWidth="1" max="68" min="68" width="30"/>
-    <col customWidth="1" max="68" min="68" width="30"/>
-    <col customWidth="1" max="69" min="69" width="30"/>
     <col customWidth="1" max="69" min="69" width="30"/>
     <col customWidth="1" max="70" min="70" width="30"/>
-    <col customWidth="1" max="70" min="70" width="30"/>
-    <col customWidth="1" max="71" min="71" width="30"/>
     <col customWidth="1" max="71" min="71" width="30"/>
     <col customWidth="1" max="72" min="72" width="30"/>
-    <col customWidth="1" max="72" min="72" width="30"/>
-    <col customWidth="1" max="73" min="73" width="30"/>
     <col customWidth="1" max="73" min="73" width="30"/>
     <col customWidth="1" max="74" min="74" width="30"/>
-    <col customWidth="1" max="74" min="74" width="30"/>
-    <col customWidth="1" max="75" min="75" width="30"/>
     <col customWidth="1" max="75" min="75" width="30"/>
     <col customWidth="1" max="76" min="76" width="30"/>
-    <col customWidth="1" max="76" min="76" width="30"/>
     <col customWidth="1" max="77" min="77" width="30"/>
-    <col customWidth="1" max="77" min="77" width="30"/>
-    <col customWidth="1" max="78" min="78" width="30"/>
     <col customWidth="1" max="78" min="78" width="30"/>
   </cols>
   <sheetData>
@@ -645,6 +736,66 @@
           <t>Состав</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>ReadyBoost</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Защита паролем</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Аппаратное шифрование данных</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Сжатие данных</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Резервное копирование данных</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Выдвижной разъем</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Индикатор передачи данных</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Защита от перезаписи</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Водонепроницаемый корпус</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Ширина</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Длина</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Толщина</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
@@ -737,6 +888,308 @@
       <c r="P32" t="inlineStr">
         <is>
           <t>очищенная вода, цетил этилгексаноат, диоксид титана, глицерин, минеральные масла, циклопентасилоксан, пэг/ппг-10/1 диметикон, сорбитансесквиолеат, пчелиный воск, хлорид натрия, диметикон/метилметикона кроссполимер, оксид цинка, триэтоксикаприлилсилан, феноксиэтанол, каприлил гликоль, экстракт риса, экстракт сосновой хвои, экстракт цветов лотоса, аллантоин, аденозин, дисодиум ЭДТА, желтый оксид железа, красный оксид железа, черный оксид железа, отдушка</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetFlash 2.0 TS4GJF350 4GB</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetflash-350-4gb/7773670/spec</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4 ГБ</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>USB 2.0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>18x60x8 мм</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>3 г.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>36 мес.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetFlash 3.0 TS8GJF700 8GB</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetflash-700/6934610/spec</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>USB 3.0</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>19 мм</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>62 мм</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>9 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetFlash 2.0 TS4GJF350 4GB</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetflash-350-4gb/7773670/spec</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4 ГБ</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>USB 2.0</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>18x60x8 мм</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>3 г.</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>36 мес.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetFlash 2.0 TS4GJF350 4GB</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetflash-350-4gb/7773670/spec</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4 ГБ</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>USB 2.0</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>18x60x8 мм</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>3 г.</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>36 мес.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetFlash 2.0 TS4GJF350 4GB</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetflash-350-4gb/7773670/spec</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4 ГБ</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>USB 2.0</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>18x60x8 мм</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>3 г.</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>36 мес.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetFlash 3.0 TS8GJF700 8GB</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetflash-700/6934610/spec</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>USB 3.0</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Y122" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>19 мм</t>
+        </is>
+      </c>
+      <c r="AA122" t="inlineStr">
+        <is>
+          <t>62 мм</t>
+        </is>
+      </c>
+      <c r="AB122" t="inlineStr">
+        <is>
+          <t>9 мм</t>
         </is>
       </c>
     </row>

--- a/2.xlsx
+++ b/2.xlsx
@@ -269,6 +269,34 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>135</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="9" name="Image 9"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -571,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:AC122"/>
+  <dimension ref="B2:AC137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1193,6 +1221,43 @@
         </is>
       </c>
     </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetFlash 2.0 TS4GJF350 4GB</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetflash-350-4gb/7773670/spec</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>4 ГБ</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>USB 2.0</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>18x60x8 мм</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>3 г.</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>36 мес.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <drawing r:id="rId1"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -303,6 +303,174 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>240</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="10" name="Image 10"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>255</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="11" name="Image 11"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>270</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="12" name="Image 12"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>285</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="13" name="Image 13"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>300</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="14" name="Image 14"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>315</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="15" name="Image 15"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -599,7 +767,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:AC137"/>
+  <dimension ref="B2:AG317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,6 +992,26 @@
           <t>Толщина</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Скорость чтения</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Скорость записи</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Скорость чтения данных</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Материал корпуса</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
@@ -1255,6 +1443,770 @@
       <c r="H137" t="inlineStr">
         <is>
           <t>36 мес.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetFlash 2.0 TS4GJF350 4GB</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetflash-350-4gb/7773670/spec</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>4 ГБ</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>USB 2.0</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>18x60x8 мм</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>3 г.</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>36 мес.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetFlash 3.0 TS8GJF700 8GB</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetflash-700/6934610/spec</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>USB 3.0</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="W167" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Y167" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Z167" t="inlineStr">
+        <is>
+          <t>19 мм</t>
+        </is>
+      </c>
+      <c r="AA167" t="inlineStr">
+        <is>
+          <t>62 мм</t>
+        </is>
+      </c>
+      <c r="AB167" t="inlineStr">
+        <is>
+          <t>9 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetFlash 3.0 TS16GJF700 16GB</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetflash-700-16gb/6934613/spec</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>16 ГБ</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>USB 3.0</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>19x62x9 мм</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>3 г.</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>12 мес.</t>
+        </is>
+      </c>
+      <c r="W182" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="AC182" t="inlineStr">
+        <is>
+          <t>75 МБ/с</t>
+        </is>
+      </c>
+      <c r="AD182" t="inlineStr">
+        <is>
+          <t>12 МБ/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetDrive Go300S 32GB 3.1 lightning Silver</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetdrive-go-300s/13620153/spec</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>USB 3.1/Lightning</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Z197" t="inlineStr">
+        <is>
+          <t>20 мм</t>
+        </is>
+      </c>
+      <c r="AA197" t="inlineStr">
+        <is>
+          <t>57 мм</t>
+        </is>
+      </c>
+      <c r="AB197" t="inlineStr">
+        <is>
+          <t>8 мм</t>
+        </is>
+      </c>
+      <c r="AE197" t="inlineStr">
+        <is>
+          <t>130 МБ/с</t>
+        </is>
+      </c>
+      <c r="AF197" t="inlineStr">
+        <is>
+          <t>металл</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetDrive Go500G 32GB 3.1 lightning Gold</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetdrive-go-500g/13620162/spec</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>USB 3.1/Lightning</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Y212" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Z212" t="inlineStr">
+        <is>
+          <t>14 мм</t>
+        </is>
+      </c>
+      <c r="AA212" t="inlineStr">
+        <is>
+          <t>37 мм</t>
+        </is>
+      </c>
+      <c r="AB212" t="inlineStr">
+        <is>
+          <t>9 мм</t>
+        </is>
+      </c>
+      <c r="AE212" t="inlineStr">
+        <is>
+          <t>130 МБ/с</t>
+        </is>
+      </c>
+      <c r="AF212" t="inlineStr">
+        <is>
+          <t>металл</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetDrive Go500G 32GB 3.1 lightning Silver</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetdrive-go-500s/13620161/spec</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>USB 3.1/Lightning</t>
+        </is>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Z227" t="inlineStr">
+        <is>
+          <t>14 мм</t>
+        </is>
+      </c>
+      <c r="AA227" t="inlineStr">
+        <is>
+          <t>37 мм</t>
+        </is>
+      </c>
+      <c r="AB227" t="inlineStr">
+        <is>
+          <t>9 мм</t>
+        </is>
+      </c>
+      <c r="AE227" t="inlineStr">
+        <is>
+          <t>130 МБ/с</t>
+        </is>
+      </c>
+      <c r="AF227" t="inlineStr">
+        <is>
+          <t>металл</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetFlash 2.0 TS4GJF350 4GB</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetflash-350-4gb/7773670/spec</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>4 ГБ</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>USB 2.0</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>18x60x8 мм</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>3 г.</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>36 мес.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetFlash 3.0 TS8GJF700 8GB</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetflash-700/6934610/spec</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>USB 3.0</t>
+        </is>
+      </c>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="R257" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="W257" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="X257" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Y257" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Z257" t="inlineStr">
+        <is>
+          <t>19 мм</t>
+        </is>
+      </c>
+      <c r="AA257" t="inlineStr">
+        <is>
+          <t>62 мм</t>
+        </is>
+      </c>
+      <c r="AB257" t="inlineStr">
+        <is>
+          <t>9 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetFlash 3.0 TS16GJF700 16GB</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetflash-700-16gb/6934613/spec</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>16 ГБ</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>USB 3.0</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>19x62x9 мм</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>3 г.</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>12 мес.</t>
+        </is>
+      </c>
+      <c r="W272" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="AC272" t="inlineStr">
+        <is>
+          <t>75 МБ/с</t>
+        </is>
+      </c>
+      <c r="AD272" t="inlineStr">
+        <is>
+          <t>12 МБ/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetDrive Go300S 32GB 3.1 lightning Silver</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetdrive-go-300s/13620153/spec</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>USB 3.1/Lightning</t>
+        </is>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="X287" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Z287" t="inlineStr">
+        <is>
+          <t>20 мм</t>
+        </is>
+      </c>
+      <c r="AA287" t="inlineStr">
+        <is>
+          <t>57 мм</t>
+        </is>
+      </c>
+      <c r="AB287" t="inlineStr">
+        <is>
+          <t>8 мм</t>
+        </is>
+      </c>
+      <c r="AE287" t="inlineStr">
+        <is>
+          <t>130 МБ/с</t>
+        </is>
+      </c>
+      <c r="AF287" t="inlineStr">
+        <is>
+          <t>металл</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetDrive Go500G 32GB 3.1 lightning Gold</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetdrive-go-500g/13620162/spec</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>USB 3.1/Lightning</t>
+        </is>
+      </c>
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="V302" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="X302" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Y302" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Z302" t="inlineStr">
+        <is>
+          <t>14 мм</t>
+        </is>
+      </c>
+      <c r="AA302" t="inlineStr">
+        <is>
+          <t>37 мм</t>
+        </is>
+      </c>
+      <c r="AB302" t="inlineStr">
+        <is>
+          <t>9 мм</t>
+        </is>
+      </c>
+      <c r="AE302" t="inlineStr">
+        <is>
+          <t>130 МБ/с</t>
+        </is>
+      </c>
+      <c r="AF302" t="inlineStr">
+        <is>
+          <t>металл</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>USB Накопитель Transcend JetDrive Go500G 32GB 3.1 lightning Silver</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--fleshka-transcend-jetdrive-go-500s/13620161/spec</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>USB 3.1/Lightning</t>
+        </is>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="V317" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="X317" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Y317" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="Z317" t="inlineStr">
+        <is>
+          <t>14 мм</t>
+        </is>
+      </c>
+      <c r="AA317" t="inlineStr">
+        <is>
+          <t>37 мм</t>
+        </is>
+      </c>
+      <c r="AB317" t="inlineStr">
+        <is>
+          <t>9 мм</t>
+        </is>
+      </c>
+      <c r="AE317" t="inlineStr">
+        <is>
+          <t>130 МБ/с</t>
+        </is>
+      </c>
+      <c r="AF317" t="inlineStr">
+        <is>
+          <t>металл</t>
         </is>
       </c>
     </row>

--- a/2.xlsx
+++ b/2.xlsx
@@ -471,6 +471,34 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>330</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="16" name="Image 16"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -767,7 +795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:AG317"/>
+  <dimension ref="B2:BB332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,6 +1040,116 @@
           <t>Материал корпуса</t>
         </is>
       </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Тип стабилизатора</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Активная мощность</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Тип входного напряжения</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Входное рабочее напряжение</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Точность стабилизации</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Выходное напряжение</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Скорость стабилизации</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Время отклика</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>КПД</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>Входная частота</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Форма выходного сигнала</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>Защита</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Размещение</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Тип охлаждения</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Отображение информации</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Штепсельная вилка</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Выходные розетки</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Класс защиты</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Влажность окружающей среды</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>Рабочая температура</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>Габариты, ШхВхГ</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>Масса</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
@@ -2207,6 +2345,138 @@
       <c r="AF317" t="inlineStr">
         <is>
           <t>металл</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Стабилизатор Ресанта АСН-1000/1-Ц</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--stabilizator-napriazheniia-odnofaznyi-resanta-ach-1000-1-ts-1-kvt/12718909/spec</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>365 дн.</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>2 г.</t>
+        </is>
+      </c>
+      <c r="AG332" t="inlineStr">
+        <is>
+          <t>релейный</t>
+        </is>
+      </c>
+      <c r="AH332" t="inlineStr">
+        <is>
+          <t>1 кВт</t>
+        </is>
+      </c>
+      <c r="AI332" t="inlineStr">
+        <is>
+          <t>однофазное (220 В)</t>
+        </is>
+      </c>
+      <c r="AJ332" t="inlineStr">
+        <is>
+          <t>140-260 В</t>
+        </is>
+      </c>
+      <c r="AK332" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="AL332" t="inlineStr">
+        <is>
+          <t>202-238 В</t>
+        </is>
+      </c>
+      <c r="AM332" t="inlineStr">
+        <is>
+          <t>35 В/с</t>
+        </is>
+      </c>
+      <c r="AN332" t="inlineStr">
+        <is>
+          <t>7 мс</t>
+        </is>
+      </c>
+      <c r="AO332" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="AP332" t="inlineStr">
+        <is>
+          <t>50-60 Гц</t>
+        </is>
+      </c>
+      <c r="AQ332" t="inlineStr">
+        <is>
+          <t>синусоида без искажений</t>
+        </is>
+      </c>
+      <c r="AR332" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> от короткого замыкания, от перегрева, от повышенного напряжения, от помех</t>
+        </is>
+      </c>
+      <c r="AS332" t="inlineStr">
+        <is>
+          <t>напольное</t>
+        </is>
+      </c>
+      <c r="AT332" t="inlineStr">
+        <is>
+          <t>естественное</t>
+        </is>
+      </c>
+      <c r="AU332" t="inlineStr">
+        <is>
+          <t>цифровая индикация (вольтметр отображает входное и выходное напряжения)</t>
+        </is>
+      </c>
+      <c r="AV332" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="AW332" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX332" t="inlineStr">
+        <is>
+          <t>IP20</t>
+        </is>
+      </c>
+      <c r="AY332" t="inlineStr">
+        <is>
+          <t>80% (макс.)</t>
+        </is>
+      </c>
+      <c r="AZ332" t="inlineStr">
+        <is>
+          <t>0 °C – 45 °C</t>
+        </is>
+      </c>
+      <c r="BA332" t="inlineStr">
+        <is>
+          <t>140х170х237 мм</t>
+        </is>
+      </c>
+      <c r="BB332" t="inlineStr">
+        <is>
+          <t>3.5 кг</t>
         </is>
       </c>
     </row>

--- a/2.xlsx
+++ b/2.xlsx
@@ -493,6 +493,634 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>345</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="17" name="Image 17"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>356</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="18" name="Image 18"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>367</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="19" name="Image 19"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>378</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="20" name="Image 20"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>389</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="21" name="Image 21"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>400</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="22" name="Image 22"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>411</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="23" name="Image 23"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>422</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="24" name="Image 24"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>433</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="25" name="Image 25"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>444</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="26" name="Image 26"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>455</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="27" name="Image 27"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>466</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="28" name="Image 28"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>477</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="29" name="Image 29"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>488</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="30" name="Image 30"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>499</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="31" name="Image 31"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>510</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="32" name="Image 32"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>521</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="33" name="Image 33"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>532</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="34" name="Image 34"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>543</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="35" name="Image 35"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>554</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="36" name="Image 36"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>565</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="37" name="Image 37"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>576</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="38" name="Image 38"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>587</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="39" name="Image 39"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>598</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="40" name="Image 40"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>609</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="41" name="Image 41"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId41"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -795,7 +1423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:BB332"/>
+  <dimension ref="A2:CW611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,6 +1778,241 @@
           <t>Масса</t>
         </is>
       </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>Тип</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>Версия ОС на начало продаж</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>Тип корпуса</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>Конструкция</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>Количество SIM-карт</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>Тип SIM-карты</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>Бесконтактная оплата</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>Вес</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>Размеры (ШxВxТ)</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>Тип экрана</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>Тип сенсорного экрана</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>Диагональ</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>Сила нажатия на экран</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>Размер изображения</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>Число пикселей на дюйм (PPI)</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>Соотношение сторон</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>Автоматический поворот экрана</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>Количество основных (тыловых) камер</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>Разрешения основных (тыловых) камер</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>Диафрагмы основных (тыловых) камер</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>Фотовспышка</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>Функции основной (тыловой) фотокамеры</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>Запись видеороликов</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>Макс. разрешение видео</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>Geo Tagging</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>Фронтальная камера</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>Аудио</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>Стандарт</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>Поддержка диапазонов LTE</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>Интерфейсы</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>Геопозиционирование</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>Процессор</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>Объем встроенной памяти</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>Тип аккумулятора</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>Аккумулятор</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>Время работы в режиме прослушивания музыки</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>Тип разъема для зарядки</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>Функция беспроводной зарядки</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>Функция быстрой зарядки</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>Громкая связь (встроенный динамик)</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>Управление</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>Режим полета</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>Профиль A2DP</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>Датчики</t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>Фонарик</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>Дата анонсирования</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>Дата начала продаж</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
@@ -2477,6 +3340,260 @@
       <c r="BB332" t="inlineStr">
         <is>
           <t>3.5 кг</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Стабилизатор Ресанта АСН-1000/1-Ц</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>https://market.yandex.ua/product--smartfon-apple-iphone-11-128gb/558168089/spec</t>
+        </is>
+      </c>
+      <c r="BC347" t="inlineStr">
+        <is>
+          <t>смартфон</t>
+        </is>
+      </c>
+      <c r="BD347" t="inlineStr">
+        <is>
+          <t>iOS 13</t>
+        </is>
+      </c>
+      <c r="BE347" t="inlineStr">
+        <is>
+          <t>классический</t>
+        </is>
+      </c>
+      <c r="BF347" t="inlineStr">
+        <is>
+          <t>влагозащита</t>
+        </is>
+      </c>
+      <c r="BG347" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BH347" t="inlineStr">
+        <is>
+          <t>nano SIM+eSIM</t>
+        </is>
+      </c>
+      <c r="BI347" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="BJ347" t="inlineStr">
+        <is>
+          <t>194 г</t>
+        </is>
+      </c>
+      <c r="BK347" t="inlineStr">
+        <is>
+          <t>75.7x150.9x8.3 мм</t>
+        </is>
+      </c>
+      <c r="BL347" t="inlineStr">
+        <is>
+          <t>цветной IPS, сенсорный</t>
+        </is>
+      </c>
+      <c r="BM347" t="inlineStr">
+        <is>
+          <t>мультитач, емкостный</t>
+        </is>
+      </c>
+      <c r="BN347" t="inlineStr">
+        <is>
+          <t>6.1 дюйм.</t>
+        </is>
+      </c>
+      <c r="BO347" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="BP347" t="inlineStr">
+        <is>
+          <t>1792x828</t>
+        </is>
+      </c>
+      <c r="BQ347" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="BR347" t="inlineStr">
+        <is>
+          <t>19.5:9</t>
+        </is>
+      </c>
+      <c r="BS347" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="BT347" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BU347" t="inlineStr">
+        <is>
+          <t>12 МП, 12 МП</t>
+        </is>
+      </c>
+      <c r="BV347" t="inlineStr">
+        <is>
+          <t>F/2.40, F/1.80</t>
+        </is>
+      </c>
+      <c r="BW347" t="inlineStr">
+        <is>
+          <t>тыльная, светодиодная</t>
+        </is>
+      </c>
+      <c r="BX347" t="inlineStr">
+        <is>
+          <t>автофокус, оптическая стабилизация, режим макросъемки, оптический Zoom 2x</t>
+        </is>
+      </c>
+      <c r="BY347" t="inlineStr">
+        <is>
+          <t>есть (HEVC, H.264)</t>
+        </is>
+      </c>
+      <c r="BZ347" t="inlineStr">
+        <is>
+          <t>3840x2160</t>
+        </is>
+      </c>
+      <c r="CA347" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CB347" t="inlineStr">
+        <is>
+          <t>есть, 12 МП</t>
+        </is>
+      </c>
+      <c r="CC347" t="inlineStr">
+        <is>
+          <t>MP3, AAC, WAV, WMA, стереодинамики</t>
+        </is>
+      </c>
+      <c r="CD347" t="inlineStr">
+        <is>
+          <t>GSM 900/1800/1900, 3G, 4G LTE, LTE-A, VoLTE</t>
+        </is>
+      </c>
+      <c r="CE347" t="inlineStr">
+        <is>
+          <t>модель A2221: FDD‑LTE (диапазоны 1, 2, 3, 4, 5, 7, 8, 11, 12, 13, 17, 18, 19, 20, 21, 25, 26, 28, 29, 30, 32, 66) TD‑LTE (диапазоны 34, 38, 39, 40, 41, 42, 46, 48)</t>
+        </is>
+      </c>
+      <c r="CF347" t="inlineStr">
+        <is>
+          <t>Wi-Fi 802.11ax, Bluetooth 5.0, NFC</t>
+        </is>
+      </c>
+      <c r="CG347" t="inlineStr">
+        <is>
+          <t>A-GPS, ГЛОНАСС, GPS</t>
+        </is>
+      </c>
+      <c r="CH347" t="inlineStr">
+        <is>
+          <t>Apple A13 Bionic</t>
+        </is>
+      </c>
+      <c r="CI347" t="inlineStr">
+        <is>
+          <t>128 ГБ</t>
+        </is>
+      </c>
+      <c r="CJ347" t="inlineStr">
+        <is>
+          <t>Li-Ion</t>
+        </is>
+      </c>
+      <c r="CK347" t="inlineStr">
+        <is>
+          <t>несъемный</t>
+        </is>
+      </c>
+      <c r="CL347" t="inlineStr">
+        <is>
+          <t>65 ч</t>
+        </is>
+      </c>
+      <c r="CM347" t="inlineStr">
+        <is>
+          <t>Lightning</t>
+        </is>
+      </c>
+      <c r="CN347" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CO347" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CP347" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CQ347" t="inlineStr">
+        <is>
+          <t>голосовой набор, голосовое управление</t>
+        </is>
+      </c>
+      <c r="CR347" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CS347" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CT347" t="inlineStr">
+        <is>
+          <t>освещенности, приближения, гироскоп, компас, барометр</t>
+        </is>
+      </c>
+      <c r="CU347" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CV347" t="inlineStr">
+        <is>
+          <t>2019-09-10</t>
+        </is>
+      </c>
+      <c r="CW347" t="inlineStr">
+        <is>
+          <t>2019-09-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
         </is>
       </c>
     </row>

--- a/2.xlsx
+++ b/2.xlsx
@@ -191,6 +191,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -216,6 +219,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -235,6 +241,482 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>87</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="8" name="Image 8"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>98</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="9" name="Image 9"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>109</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="10" name="Image 10"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>120</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="11" name="Image 11"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>135</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="12" name="Image 12"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>146</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="13" name="Image 13"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>157</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="14" name="Image 14"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>172</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="15" name="Image 15"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>183</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="16" name="Image 16"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>194</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="17" name="Image 17"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>205</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="18" name="Image 18"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>220</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="19" name="Image 19"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>231</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="20" name="Image 20"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>242</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="21" name="Image 21"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>257</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="22" name="Image 22"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>268</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="23" name="Image 23"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>283</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="24" name="Image 24"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -537,7 +1019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AB74"/>
+  <dimension ref="A2:AR285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,6 +1162,91 @@
           <t>Гарантийный срок</t>
         </is>
       </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Bypass</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Клеммы</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>Активаторная</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Установка</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Тип загрузки</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Максимальная загрузка белья</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Сушка</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Управление</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>Габариты (ШxГxВ)</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Вес</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Цвет</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Защита от протечек воды</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Защита от детей</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Специальные программы</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>Материал бака</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Количество программ</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>Функция дозагрузки белья</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -956,6 +1523,729 @@
       <c r="A74" t="inlineStr">
         <is>
           <t>Максимальная строка</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Стабилизатор Ресанта АСН-1000/1-Ц</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--stabilizator-napriazheniia-odnofaznyi-resanta-ach-1000-1-ts-1-kvt/12718909/spec</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>релейный</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1 кВт</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>однофазное (220 В)</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>140-260 В</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>202-238 В</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>35 В/с</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>7 мс</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>50-60 Гц</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>синусоида без искажений</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> от короткого замыкания, от перегрева, от повышенного напряжения, от помех</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>напольное</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>естественное</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>цифровая индикация (вольтметр отображает входное и выходное напряжения)</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>IP20</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>80% (макс.)</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>0 °C – 45 °C</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>140х170х237 мм</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>3.5 кг</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>365 дн.</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>2 г.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Стабилизатор Ресанта АСН-1500/1-Ц</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--stabilizator-napriazheniia-odnofaznyi-resanta-ach-1500-1-ts-1-5-kvt/12718458/spec</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>релейный</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1.50 кВт</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>однофазное (220 В)</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>140-260 В</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>202-238 В</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>35 В/с</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>7 мс</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>50-60 Гц</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>синусоида без искажений</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> от короткого замыкания, от перегрева, от повышенного напряжения, от помех</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>напольное</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>естественное</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>цифровая индикация (вольтметр отображает входное и выходное напряжения)</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>IP20</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>80% (макс.)</t>
+        </is>
+      </c>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>0 °C – 45 °C</t>
+        </is>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>140х170х237 мм</t>
+        </is>
+      </c>
+      <c r="Y137" t="inlineStr">
+        <is>
+          <t>4.9 кг</t>
+        </is>
+      </c>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>365 дн.</t>
+        </is>
+      </c>
+      <c r="AA137" t="inlineStr">
+        <is>
+          <t>2 г.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Стабилизатор Ресанта АСН-2000/1-Ц</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--stabilizator-napriazheniia-odnofaznyi-resanta-ach-2000-1-ts-2-kvt/12718922/spec</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>релейный</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>2 кВт</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>однофазное (220 В)</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>140-260 В</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>202-238 В</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>35 В/с</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>7 мс</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>50-60 Гц</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>синусоида без искажений</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> от короткого замыкания, от перегрева, от повышенного напряжения, от помех</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>напольное</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>естественное</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>цифровая индикация (вольтметр отображает входное и выходное напряжения)</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>IP20</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>80% (макс.)</t>
+        </is>
+      </c>
+      <c r="W174" t="inlineStr">
+        <is>
+          <t>0 °C – 45 °C</t>
+        </is>
+      </c>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>140х170х237 мм</t>
+        </is>
+      </c>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>5.8 кг</t>
+        </is>
+      </c>
+      <c r="Z174" t="inlineStr">
+        <is>
+          <t>365 дн.</t>
+        </is>
+      </c>
+      <c r="AA174" t="inlineStr">
+        <is>
+          <t>1 г.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Стабилизатор Ресанта АСН-3000C/1-Ц</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--stabilizator-napriazheniia-odnofaznyi-resanta-ach-3000-1-ts-3-kvt/12718456/spec</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>релейный</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>3 кВт</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>однофазное (220 В)</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>140-260 В</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>202-238 В</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>35 В/с</t>
+        </is>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>7 мс</t>
+        </is>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>97%</t>
+        </is>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>50-60 Гц</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>синусоида без искажений</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> от короткого замыкания, от перегрева, от повышенного напряжения, от помех</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>напольное</t>
+        </is>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>естественное</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>цифровая индикация (вольтметр отображает входное и выходное напряжения)</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>IP20</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>80% (макс.)</t>
+        </is>
+      </c>
+      <c r="W222" t="inlineStr">
+        <is>
+          <t>0 °C – 45 °C</t>
+        </is>
+      </c>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>220х230х340 мм</t>
+        </is>
+      </c>
+      <c r="Y222" t="inlineStr">
+        <is>
+          <t>11 кг</t>
+        </is>
+      </c>
+      <c r="Z222" t="inlineStr">
+        <is>
+          <t>365 дн.</t>
+        </is>
+      </c>
+      <c r="AA222" t="inlineStr">
+        <is>
+          <t>365 дн.</t>
+        </is>
+      </c>
+      <c r="AB222" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="AC222" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Стиральная машина Artel TE 60 L</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--stiralnaia-mashina-artel-te60l/13802748/spec</t>
+        </is>
+      </c>
+      <c r="AD259" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+      <c r="AE259" t="inlineStr">
+        <is>
+          <t>отдельно стоящая</t>
+        </is>
+      </c>
+      <c r="AF259" t="inlineStr">
+        <is>
+          <t>вертикальная</t>
+        </is>
+      </c>
+      <c r="AG259" t="inlineStr">
+        <is>
+          <t>6 кг</t>
+        </is>
+      </c>
+      <c r="AH259" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AI259" t="inlineStr">
+        <is>
+          <t>механическое</t>
+        </is>
+      </c>
+      <c r="AJ259" t="inlineStr">
+        <is>
+          <t>74x44x85 см</t>
+        </is>
+      </c>
+      <c r="AK259" t="inlineStr">
+        <is>
+          <t>19 кг</t>
+        </is>
+      </c>
+      <c r="AL259" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="AM259" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AN259" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AP259" t="inlineStr">
+        <is>
+          <t>пластик</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Стиральная машина Artel TG 100 FP</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--stiralnaia-mashina-artel-tg100fp-red/217193208/spec</t>
+        </is>
+      </c>
+      <c r="AD285" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+      <c r="AE285" t="inlineStr">
+        <is>
+          <t>отдельно стоящая</t>
+        </is>
+      </c>
+      <c r="AF285" t="inlineStr">
+        <is>
+          <t>вертикальная</t>
+        </is>
+      </c>
+      <c r="AG285" t="inlineStr">
+        <is>
+          <t>10 кг</t>
+        </is>
+      </c>
+      <c r="AH285" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AI285" t="inlineStr">
+        <is>
+          <t>механическое</t>
+        </is>
+      </c>
+      <c r="AJ285" t="inlineStr">
+        <is>
+          <t>85x51x96 см</t>
+        </is>
+      </c>
+      <c r="AK285" t="inlineStr">
+        <is>
+          <t>30.5 кг</t>
+        </is>
+      </c>
+      <c r="AL285" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="AM285" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AN285" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AO285" t="inlineStr"/>
+      <c r="AP285" t="inlineStr">
+        <is>
+          <t>пластик</t>
+        </is>
+      </c>
+      <c r="AQ285" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AR285" t="inlineStr">
+        <is>
+          <t>через основной люк</t>
         </is>
       </c>
     </row>

--- a/2.xlsx
+++ b/2.xlsx
@@ -717,6 +717,787 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>298</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="25" name="Image 25"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>313</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="26" name="Image 26"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>328</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="27" name="Image 27"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>343</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="28" name="Image 28"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>354</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="29" name="Image 29"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>365</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="30" name="Image 30"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>376</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="31" name="Image 31"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>387</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="32" name="Image 32"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>402</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="33" name="Image 33"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>413</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="34" name="Image 34"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>424</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="35" name="Image 35"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>435</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="36" name="Image 36"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>446</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="37" name="Image 37"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>461</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="38" name="Image 38"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>472</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="39" name="Image 39"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>487</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="40" name="Image 40"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>498</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="41" name="Image 41"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>509</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="42" name="Image 42"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>524</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="43" name="Image 43"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>535</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="44" name="Image 44"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>546</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="45" name="Image 45"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>561</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="46" name="Image 46"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>576</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="47" name="Image 47"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>591</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="48" name="Image 48"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>602</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="49" name="Image 49"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>617</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="50" name="Image 50"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>632</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="51" name="Image 51"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>643</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="52" name="Image 52"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId52"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1019,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AR285"/>
+  <dimension ref="A2:BF645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1247,6 +2028,71 @@
           <t>Функция дозагрузки белья</t>
         </is>
       </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Тип средства</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Текстура</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Объем</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Тип кожи</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Эффект</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>SPF-фактор</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Особенности</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>Активные ингредиенты</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>Состав</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>Страна</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>Срок годности</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>Масла и экстракты</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>Дополнительная информация</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -2232,7 +3078,6 @@
           <t>нет</t>
         </is>
       </c>
-      <c r="AO285" t="inlineStr"/>
       <c r="AP285" t="inlineStr">
         <is>
           <t>пластик</t>
@@ -2246,6 +3091,892 @@
       <c r="AR285" t="inlineStr">
         <is>
           <t>через основной люк</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>BB крем Aspasia 4U SPF 50+/PA+++ 50ml</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--aspasia-bb-krem-4u-special-solution-spf-50-50-ml/651630186/spec</t>
+        </is>
+      </c>
+      <c r="AS300" t="inlineStr">
+        <is>
+          <t>BB крем</t>
+        </is>
+      </c>
+      <c r="AT300" t="inlineStr">
+        <is>
+          <t>кремовая</t>
+        </is>
+      </c>
+      <c r="AU300" t="inlineStr">
+        <is>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="AV300" t="inlineStr">
+        <is>
+          <t>для всех типов, жирная, комбинированная, сухая, нормальная, чувствительная</t>
+        </is>
+      </c>
+      <c r="AW300" t="inlineStr">
+        <is>
+          <t>матирование, омоложение, отбеливание, увлажнение, защита от солнца</t>
+        </is>
+      </c>
+      <c r="AX300" t="inlineStr">
+        <is>
+          <t>SPF 50</t>
+        </is>
+      </c>
+      <c r="AY300" t="inlineStr">
+        <is>
+          <t>антивозрастной</t>
+        </is>
+      </c>
+      <c r="AZ300" t="inlineStr">
+        <is>
+          <t>глицерин</t>
+        </is>
+      </c>
+      <c r="BA300" t="inlineStr">
+        <is>
+          <t>очищенная вода, цетил этилгексаноат, диоксид титана, глицерин, минеральные масла, циклопентасилоксан, пэг/ппг-10/1 диметикон, сорбитансесквиолеат, пчелиный воск, хлорид натрия, диметикон/метилметикона кроссполимер, оксид цинка, триэтоксикаприлилсилан, феноксиэтанол, каприлил гликоль, экстракт риса, экстракт сосновой хвои, экстракт цветов лотоса, аллантоин, аденозин, дисодиум ЭДТА, желтый оксид железа, красный оксид железа, черный оксид железа, отдушка</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>BB крем Aspasia 4U SPF 50+/PA+++ 50ml</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--aspasia-bb-krem-4u-special-solution-spf-50-50-ml/651630186/spec</t>
+        </is>
+      </c>
+      <c r="AS315" t="inlineStr">
+        <is>
+          <t>BB крем</t>
+        </is>
+      </c>
+      <c r="AT315" t="inlineStr">
+        <is>
+          <t>кремовая</t>
+        </is>
+      </c>
+      <c r="AU315" t="inlineStr">
+        <is>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="AV315" t="inlineStr">
+        <is>
+          <t>для всех типов, жирная, комбинированная, сухая, нормальная, чувствительная</t>
+        </is>
+      </c>
+      <c r="AW315" t="inlineStr">
+        <is>
+          <t>матирование, омоложение, отбеливание, увлажнение, защита от солнца</t>
+        </is>
+      </c>
+      <c r="AX315" t="inlineStr">
+        <is>
+          <t>SPF 50</t>
+        </is>
+      </c>
+      <c r="AY315" t="inlineStr">
+        <is>
+          <t>антивозрастной</t>
+        </is>
+      </c>
+      <c r="AZ315" t="inlineStr">
+        <is>
+          <t>глицерин</t>
+        </is>
+      </c>
+      <c r="BA315" t="inlineStr">
+        <is>
+          <t>очищенная вода, цетил этилгексаноат, диоксид титана, глицерин, минеральные масла, циклопентасилоксан, пэг/ппг-10/1 диметикон, сорбитансесквиолеат, пчелиный воск, хлорид натрия, диметикон/метилметикона кроссполимер, оксид цинка, триэтоксикаприлилсилан, феноксиэтанол, каприлил гликоль, экстракт риса, экстракт сосновой хвои, экстракт цветов лотоса, аллантоин, аденозин, дисодиум ЭДТА, желтый оксид железа, красный оксид железа, черный оксид железа, отдушка</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>BB крем Aspasia 4U Wrinkle 50ml</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--aspasia-bb-krem-4u-wrinkle-50-ml/653543044/spec</t>
+        </is>
+      </c>
+      <c r="AS330" t="inlineStr">
+        <is>
+          <t>BB крем</t>
+        </is>
+      </c>
+      <c r="AT330" t="inlineStr">
+        <is>
+          <t>кремовая</t>
+        </is>
+      </c>
+      <c r="AU330" t="inlineStr">
+        <is>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="AV330" t="inlineStr">
+        <is>
+          <t>для всех типов, жирная, комбинированная, сухая, нормальная, чувствительная</t>
+        </is>
+      </c>
+      <c r="AW330" t="inlineStr">
+        <is>
+          <t>разглаживание морщин, отбеливание, увлажнение, маскировка несовершенств</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>BB крем Elizavecca Milky Piggy SPF50</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--elizavecca-bb-krem-milky-piggy-spf-50-50-ml/1946995634/spec</t>
+        </is>
+      </c>
+      <c r="AS345" t="inlineStr">
+        <is>
+          <t>BB крем</t>
+        </is>
+      </c>
+      <c r="AT345" t="inlineStr">
+        <is>
+          <t>кремовая</t>
+        </is>
+      </c>
+      <c r="AU345" t="inlineStr">
+        <is>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="AV345" t="inlineStr">
+        <is>
+          <t>для всех типов, жирная, комбинированная, сухая, нормальная, чувствительная, проблемная</t>
+        </is>
+      </c>
+      <c r="AW345" t="inlineStr">
+        <is>
+          <t>восстановление, разглаживание морщин, отбеливание, увлажнение, тонирование, защита от солнца, лифтинг</t>
+        </is>
+      </c>
+      <c r="AX345" t="inlineStr">
+        <is>
+          <t>SPF 50</t>
+        </is>
+      </c>
+      <c r="AZ345" t="inlineStr">
+        <is>
+          <t>гиалуроновая кислота, коллаген</t>
+        </is>
+      </c>
+      <c r="BA345" t="inlineStr">
+        <is>
+          <t>water, titanium dioxide, ethylhexyl methoxycinnamate, phenyl trimethicone, glycerin, ethylhexyl salicylate, synthetic fluorphlogopite, ethylhexyl methoxycrylene , butyloctyl salicylate, triethylhexanoin, disteardimonium hectorite, propylene carbonate, butylene glycol, cetyl peg/ppg-10/1 dimethiconevp/hexadecene copolymer, niacinamide , butyl methoxydibenzoylmethane, sorbitan sesquioleate, sorbitan olivate, zinc stearate, triethanolamine, magnesium sulfate, sodium hyaluronate, ci 77492, caprylhydroxamic acid, caprylyl glycol, glycerin, ci 77499 , ci 77491, ceresin, phenoxyethanol, tocopheryl acetate, allantoin, panthenol, fragrance, water, glycerin, psidium guajava leaf extract, artemisia princeps extract, morus alba leaf extract, vitis vinifera (grape) seed extract , hydrolyzed collagen , disodium edta, adenosine</t>
+        </is>
+      </c>
+      <c r="BB345" t="inlineStr">
+        <is>
+          <t>Корея</t>
+        </is>
+      </c>
+      <c r="BC345" t="inlineStr">
+        <is>
+          <t>36 мес.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>BB крем Farmstay Formula All-in-one Snail Sun BB Cream 50g</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--farmstay-formula-all-in-one-bb-krem-snail-sun-bb-cream-50-gr/1919506871/spec</t>
+        </is>
+      </c>
+      <c r="AK404" t="inlineStr">
+        <is>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="AS404" t="inlineStr">
+        <is>
+          <t>BB крем</t>
+        </is>
+      </c>
+      <c r="AT404" t="inlineStr">
+        <is>
+          <t>кремовая</t>
+        </is>
+      </c>
+      <c r="AV404" t="inlineStr">
+        <is>
+          <t>для всех типов, жирная, комбинированная, сухая, нормальная, чувствительная, проблемная</t>
+        </is>
+      </c>
+      <c r="AW404" t="inlineStr">
+        <is>
+          <t>восстановление, разглаживание морщин, отбеливание, питание, снятие воспалений, увлажнение, тонирование, защита от солнца, лифтинг</t>
+        </is>
+      </c>
+      <c r="AX404" t="inlineStr">
+        <is>
+          <t>SPF 50</t>
+        </is>
+      </c>
+      <c r="AZ404" t="inlineStr">
+        <is>
+          <t>витамины группы B, гиалуроновая кислота, муцин улитки</t>
+        </is>
+      </c>
+      <c r="BA404" t="inlineStr">
+        <is>
+          <t>aqua, ethylhexyl methoxycinnamate, titanium dioxide, zinc oxide, propylene glycol, paraffinum liquidum, cyclomethicone, butylene glycol, niacinamide, cetyl peg/ppg-10/1dimethicone, dimethicone, caprylic/capric triglyceride, glycerin, olea europaea (olive) fruit oil, zinc stearate, hyaluronic acid, sorbitan sesquioleate, cl 77491, cl 77499, beeswax, methylparaben, propylparaben, adenosine, disodium edta, flavor, cl 77492</t>
+        </is>
+      </c>
+      <c r="BB404" t="inlineStr">
+        <is>
+          <t>Корея</t>
+        </is>
+      </c>
+      <c r="BC404" t="inlineStr">
+        <is>
+          <t>12 мес.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>BB крем Farmstay Зеленый чай 50мл</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--farmstay-bb-krem-pure-anti-wrinkle-green-tea-seed-40-g/1919506790/spec</t>
+        </is>
+      </c>
+      <c r="AK463" t="inlineStr">
+        <is>
+          <t>40 г</t>
+        </is>
+      </c>
+      <c r="AS463" t="inlineStr">
+        <is>
+          <t>BB крем</t>
+        </is>
+      </c>
+      <c r="AT463" t="inlineStr">
+        <is>
+          <t>кремовая</t>
+        </is>
+      </c>
+      <c r="AV463" t="inlineStr">
+        <is>
+          <t>для всех типов, жирная, комбинированная, сухая, нормальная, чувствительная, проблемная</t>
+        </is>
+      </c>
+      <c r="AW463" t="inlineStr">
+        <is>
+          <t>матирование, разглаживание морщин, питание, увлажнение, тонирование, лифтинг</t>
+        </is>
+      </c>
+      <c r="AY463" t="inlineStr">
+        <is>
+          <t>антивозрастной</t>
+        </is>
+      </c>
+      <c r="AZ463" t="inlineStr">
+        <is>
+          <t>гиалуроновая кислота</t>
+        </is>
+      </c>
+      <c r="BB463" t="inlineStr">
+        <is>
+          <t>Корея</t>
+        </is>
+      </c>
+      <c r="BC463" t="inlineStr">
+        <is>
+          <t>12 мес.</t>
+        </is>
+      </c>
+      <c r="BD463" t="inlineStr">
+        <is>
+          <t>экстракт алоэ, экстракт зеленого чая</t>
+        </is>
+      </c>
+      <c r="BE463" t="inlineStr">
+        <is>
+          <t>содержит экстракт жасмина, аденозин</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>BB крем Farmstay Королевская Улитка</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--farmstay-bb-krem-noblesse-intensive-escargot-spf-48-50-g/1919466676/spec</t>
+        </is>
+      </c>
+      <c r="AK489" t="inlineStr">
+        <is>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="AS489" t="inlineStr">
+        <is>
+          <t>BB крем</t>
+        </is>
+      </c>
+      <c r="AT489" t="inlineStr">
+        <is>
+          <t>кремовая</t>
+        </is>
+      </c>
+      <c r="AV489" t="inlineStr">
+        <is>
+          <t>для всех типов, жирная, комбинированная, сухая, нормальная, чувствительная, проблемная</t>
+        </is>
+      </c>
+      <c r="AW489" t="inlineStr">
+        <is>
+          <t>восстановление, матирование, разглаживание морщин, отбеливание, питание, снятие воспалений, увлажнение, тонирование, защита от солнца, лифтинг</t>
+        </is>
+      </c>
+      <c r="AX489" t="inlineStr">
+        <is>
+          <t>SPF 48</t>
+        </is>
+      </c>
+      <c r="AY489" t="inlineStr">
+        <is>
+          <t>антивозрастной</t>
+        </is>
+      </c>
+      <c r="AZ489" t="inlineStr">
+        <is>
+          <t>витамин А, витамин Е, витамины группы B, гиалуроновая кислота, коллаген, муцин улитки</t>
+        </is>
+      </c>
+      <c r="BA489" t="inlineStr">
+        <is>
+          <t>water, cyclopentasiloxane, cyclohexasiloxane, titanium dioxide, glycerin, dimethicone, sodium hyaluronate niacinamide, lilium tigrinum extract, aloe barbadensis leaf extract, lavandula angustifolia (lavender) extract, magnolia kobus bark extract, phenoxyethanol, aluminum hydroxide, stearic acid, peg-10 dimethicone, methylparaben, propylparaben, xanthan gum, allantoin, disodium edta, snail secretion filtrate, perfume</t>
+        </is>
+      </c>
+      <c r="BB489" t="inlineStr">
+        <is>
+          <t>Корея</t>
+        </is>
+      </c>
+      <c r="BC489" t="inlineStr">
+        <is>
+          <t>365 дн.</t>
+        </is>
+      </c>
+      <c r="BD489" t="inlineStr">
+        <is>
+          <t>экстракт алоэ</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>BB крем Farmstay Улитка SPF +50</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--farmstay-bb-krem-snail-repair-formula-all-in-one-spf-50-50-g/1919466678/spec</t>
+        </is>
+      </c>
+      <c r="AK526" t="inlineStr">
+        <is>
+          <t>50 г</t>
+        </is>
+      </c>
+      <c r="AS526" t="inlineStr">
+        <is>
+          <t>BB крем</t>
+        </is>
+      </c>
+      <c r="AT526" t="inlineStr">
+        <is>
+          <t>кремовая</t>
+        </is>
+      </c>
+      <c r="AV526" t="inlineStr">
+        <is>
+          <t>жирная, комбинированная, нормальная</t>
+        </is>
+      </c>
+      <c r="AW526" t="inlineStr">
+        <is>
+          <t>восстановление, разглаживание морщин, отбеливание, питание, снятие воспалений, сужение пор, увлажнение, тонирование, защита от солнца, лифтинг</t>
+        </is>
+      </c>
+      <c r="AX526" t="inlineStr">
+        <is>
+          <t>SPF 50</t>
+        </is>
+      </c>
+      <c r="AZ526" t="inlineStr">
+        <is>
+          <t>витамины группы B, гиалуроновая кислота, муцин улитки, пантенол</t>
+        </is>
+      </c>
+      <c r="BA526" t="inlineStr">
+        <is>
+          <t>water, titanium dioxide /trimethoxycaprylylsilane, ethylhexyl methoxycinnamate, zinc oxide, mineral oil, paraffinum liquidum, cyclomethicone, butyl methoxydibenzoylmethane, caprylic/capric triglyceride, butylene glycol, niacinamide, propylene glycol, glycerine, cetyl peg/ppg-10/1 dimethicone, sorbitan sesquioleate, butyrospermum parkii (shea) butter, sodium chloride, bees wax, sodium hyaluronate, microcrystalline wax, aloe barbadenis leaf extract, hamamelis virginiana (witch hazel) extract, chamomilla recutita (matricaria) extract, camellia sinensis leaf extract, centella asiatica extract, rose centifolia flower water, collagen extract, snail secretion filtrate, adenosine, propylparaben, methylparaben, ci 77491, ci 77492, ci 77499, fragrance</t>
+        </is>
+      </c>
+      <c r="BB526" t="inlineStr">
+        <is>
+          <t>Корея</t>
+        </is>
+      </c>
+      <c r="BC526" t="inlineStr">
+        <is>
+          <t>12 мес.</t>
+        </is>
+      </c>
+      <c r="BE526" t="inlineStr">
+        <is>
+          <t>содержит арбутин, аллантоин, аденозин, экстракт полыни, папайи, тысячелистника, арники</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>BB крем Aspasia 4U SPF 50+/PA+++ 50ml</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--aspasia-bb-krem-4u-special-solution-spf-50-50-ml/651630186/spec</t>
+        </is>
+      </c>
+      <c r="AS563" t="inlineStr">
+        <is>
+          <t>BB крем</t>
+        </is>
+      </c>
+      <c r="AT563" t="inlineStr">
+        <is>
+          <t>кремовая</t>
+        </is>
+      </c>
+      <c r="AU563" t="inlineStr">
+        <is>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="AV563" t="inlineStr">
+        <is>
+          <t>для всех типов, жирная, комбинированная, сухая, нормальная, чувствительная</t>
+        </is>
+      </c>
+      <c r="AW563" t="inlineStr">
+        <is>
+          <t>матирование, омоложение, отбеливание, увлажнение, защита от солнца</t>
+        </is>
+      </c>
+      <c r="AX563" t="inlineStr">
+        <is>
+          <t>SPF 50</t>
+        </is>
+      </c>
+      <c r="AY563" t="inlineStr">
+        <is>
+          <t>антивозрастной</t>
+        </is>
+      </c>
+      <c r="AZ563" t="inlineStr">
+        <is>
+          <t>глицерин</t>
+        </is>
+      </c>
+      <c r="BA563" t="inlineStr">
+        <is>
+          <t>очищенная вода, цетил этилгексаноат, диоксид титана, глицерин, минеральные масла, циклопентасилоксан, пэг/ппг-10/1 диметикон, сорбитансесквиолеат, пчелиный воск, хлорид натрия, диметикон/метилметикона кроссполимер, оксид цинка, триэтоксикаприлилсилан, феноксиэтанол, каприлил гликоль, экстракт риса, экстракт сосновой хвои, экстракт цветов лотоса, аллантоин, аденозин, дисодиум ЭДТА, желтый оксид железа, красный оксид железа, черный оксид железа, отдушка</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>BB крем Aspasia 4U Wrinkle 50ml</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--aspasia-bb-krem-4u-wrinkle-50-ml/653543044/spec</t>
+        </is>
+      </c>
+      <c r="AS578" t="inlineStr">
+        <is>
+          <t>BB крем</t>
+        </is>
+      </c>
+      <c r="AT578" t="inlineStr">
+        <is>
+          <t>кремовая</t>
+        </is>
+      </c>
+      <c r="AU578" t="inlineStr">
+        <is>
+          <t>50 мл</t>
+        </is>
+      </c>
+      <c r="AV578" t="inlineStr">
+        <is>
+          <t>для всех типов, жирная, комбинированная, сухая, нормальная, чувствительная</t>
+        </is>
+      </c>
+      <c r="AW578" t="inlineStr">
+        <is>
+          <t>разглаживание морщин, отбеливание, увлажнение, маскировка несовершенств</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Стиральная машина Artel TE 60 L</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--stiralnaia-mashina-artel-te60l/13802748/spec</t>
+        </is>
+      </c>
+      <c r="AD593" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+      <c r="AE593" t="inlineStr">
+        <is>
+          <t>отдельно стоящая</t>
+        </is>
+      </c>
+      <c r="AF593" t="inlineStr">
+        <is>
+          <t>вертикальная</t>
+        </is>
+      </c>
+      <c r="AG593" t="inlineStr">
+        <is>
+          <t>6 кг</t>
+        </is>
+      </c>
+      <c r="AH593" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AI593" t="inlineStr">
+        <is>
+          <t>механическое</t>
+        </is>
+      </c>
+      <c r="AJ593" t="inlineStr">
+        <is>
+          <t>74x44x85 см</t>
+        </is>
+      </c>
+      <c r="AK593" t="inlineStr">
+        <is>
+          <t>19 кг</t>
+        </is>
+      </c>
+      <c r="AL593" t="inlineStr">
+        <is>
+          <t>серый</t>
+        </is>
+      </c>
+      <c r="AM593" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AN593" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AP593" t="inlineStr">
+        <is>
+          <t>пластик</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Стиральная машина Artel TG 100 FP</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--stiralnaia-mashina-artel-tg100fp-red/217193208/spec</t>
+        </is>
+      </c>
+      <c r="AD619" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+      <c r="AE619" t="inlineStr">
+        <is>
+          <t>отдельно стоящая</t>
+        </is>
+      </c>
+      <c r="AF619" t="inlineStr">
+        <is>
+          <t>вертикальная</t>
+        </is>
+      </c>
+      <c r="AG619" t="inlineStr">
+        <is>
+          <t>10 кг</t>
+        </is>
+      </c>
+      <c r="AH619" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AI619" t="inlineStr">
+        <is>
+          <t>механическое</t>
+        </is>
+      </c>
+      <c r="AJ619" t="inlineStr">
+        <is>
+          <t>85x51x96 см</t>
+        </is>
+      </c>
+      <c r="AK619" t="inlineStr">
+        <is>
+          <t>30.5 кг</t>
+        </is>
+      </c>
+      <c r="AL619" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="AM619" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AN619" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AP619" t="inlineStr">
+        <is>
+          <t>пластик</t>
+        </is>
+      </c>
+      <c r="AQ619" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AR619" t="inlineStr">
+        <is>
+          <t>через основной люк</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Стиральная машина Artel TG 101 FP</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--stiralnaia-mashina-artel-tg101fp-blue/1968870507/spec</t>
+        </is>
+      </c>
+      <c r="AD634" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+      <c r="AE634" t="inlineStr">
+        <is>
+          <t>отдельно стоящая</t>
+        </is>
+      </c>
+      <c r="AF634" t="inlineStr">
+        <is>
+          <t>вертикальная</t>
+        </is>
+      </c>
+      <c r="AG634" t="inlineStr">
+        <is>
+          <t>10 кг</t>
+        </is>
+      </c>
+      <c r="AH634" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AI634" t="inlineStr">
+        <is>
+          <t>механическое</t>
+        </is>
+      </c>
+      <c r="AJ634" t="inlineStr">
+        <is>
+          <t>85x51x97 см</t>
+        </is>
+      </c>
+      <c r="AK634" t="inlineStr">
+        <is>
+          <t>19 кг</t>
+        </is>
+      </c>
+      <c r="AL634" t="inlineStr">
+        <is>
+          <t>белый</t>
+        </is>
+      </c>
+      <c r="AM634" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AN634" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+      <c r="AO634" t="inlineStr"/>
+      <c r="AP634" t="inlineStr">
+        <is>
+          <t>пластик</t>
+        </is>
+      </c>
+      <c r="AR634" t="inlineStr">
+        <is>
+          <t>через основной люк</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
         </is>
       </c>
     </row>

--- a/2.xlsx
+++ b/2.xlsx
@@ -1479,6 +1479,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1498,6 +1501,1534 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>658</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="53" name="Image 53"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>669</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="54" name="Image 54"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>680</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="55" name="Image 55"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>691</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="56" name="Image 56"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>702</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="57" name="Image 57"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>713</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="58" name="Image 58"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>724</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="59" name="Image 59"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>735</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="60" name="Image 60"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>746</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="61" name="Image 61"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>757</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="62" name="Image 62"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>768</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="63" name="Image 63"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>779</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="64" name="Image 64"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>790</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="65" name="Image 65"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>801</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="66" name="Image 66"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>812</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="67" name="Image 67"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>823</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="68" name="Image 68"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>834</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="69" name="Image 69"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>845</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="70" name="Image 70"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>856</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="71" name="Image 71"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>867</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="72" name="Image 72"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>878</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="73" name="Image 73"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>889</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="74" name="Image 74"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>900</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="75" name="Image 75"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>911</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="76" name="Image 76"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>922</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="77" name="Image 77"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>937</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="78" name="Image 78"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>948</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="79" name="Image 79"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>959</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="80" name="Image 80"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>970</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="81" name="Image 81"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>981</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="82" name="Image 82"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>992</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="83" name="Image 83"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1003</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="84" name="Image 84"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1014</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="85" name="Image 85"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1025</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="86" name="Image 86"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1036</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="87" name="Image 87"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1047</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="88" name="Image 88"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1058</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="89" name="Image 89"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1069</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="90" name="Image 90"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1080</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="91" name="Image 91"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1091</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="92" name="Image 92"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId92"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1102</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="93" name="Image 93"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId93"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1113</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="94" name="Image 94"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId94"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1124</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="95" name="Image 95"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId95"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1135</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="96" name="Image 96"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1146</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="97" name="Image 97"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId97"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1157</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="98" name="Image 98"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId98"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1168</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="99" name="Image 99"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId99"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1179</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="100" name="Image 100"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1190</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="101" name="Image 101"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId101"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1201</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="102" name="Image 102"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId102"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1216</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="103" name="Image 103"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId103"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1227</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="104" name="Image 104"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId104"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1238</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="105" name="Image 105"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId105"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1249</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="106" name="Image 106"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId106"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1260</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1905000" cy="1905000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="107" name="Image 107"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId107"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1800,7 +3331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:BF645"/>
+  <dimension ref="A2:DK1262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2093,6 +3624,296 @@
           <t>Дополнительная информация</t>
         </is>
       </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>Тип</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>Версия ОС на начало продаж</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>Тип корпуса</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>Конструкция</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>Количество SIM-карт</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>Тип SIM-карты</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>Бесконтактная оплата</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>Размеры (ШxВxТ)</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>Тип экрана</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>Тип сенсорного экрана</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>Диагональ</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>Сила нажатия на экран</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>Размер изображения</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>Число пикселей на дюйм (PPI)</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>Соотношение сторон</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>Автоматический поворот экрана</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>Количество основных (тыловых) камер</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>Разрешения основных (тыловых) камер</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>Диафрагмы основных (тыловых) камер</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>Фотовспышка</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>Функции основной (тыловой) фотокамеры</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>Запись видеороликов</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>Макс. разрешение видео</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>Geo Tagging</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>Фронтальная камера</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>Аудио</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>Стандарт</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>Поддержка диапазонов LTE</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>Интерфейсы</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>Геопозиционирование</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>Процессор</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>Объем встроенной памяти</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>Тип аккумулятора</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>Аккумулятор</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>Время работы в режиме прослушивания музыки</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>Тип разъема для зарядки</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>Функция беспроводной зарядки</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>Функция быстрой зарядки</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>Громкая связь (встроенный динамик)</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>Режим полета</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>Профиль A2DP</t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>Датчики</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>Фонарик</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>Дата анонсирования</t>
+        </is>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>Дата начала продаж</t>
+        </is>
+      </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>Емкость</t>
+        </is>
+      </c>
+      <c r="CZ2" t="inlineStr">
+        <is>
+          <t>Одновременная зарядка двух устройств</t>
+        </is>
+      </c>
+      <c r="DA2" t="inlineStr">
+        <is>
+          <t>Разъем</t>
+        </is>
+      </c>
+      <c r="DB2" t="inlineStr">
+        <is>
+          <t>Напряжение</t>
+        </is>
+      </c>
+      <c r="DC2" t="inlineStr">
+        <is>
+          <t>Ток</t>
+        </is>
+      </c>
+      <c r="DD2" t="inlineStr">
+        <is>
+          <t>Максимальный ток</t>
+        </is>
+      </c>
+      <c r="DE2" t="inlineStr">
+        <is>
+          <t>Разъемы</t>
+        </is>
+      </c>
+      <c r="DF2" t="inlineStr">
+        <is>
+          <t>Переходник на micro USB</t>
+        </is>
+      </c>
+      <c r="DG2" t="inlineStr">
+        <is>
+          <t>Время зарядки</t>
+        </is>
+      </c>
+      <c r="DH2" t="inlineStr">
+        <is>
+          <t>Индикатор заряда</t>
+        </is>
+      </c>
+      <c r="DI2" t="inlineStr">
+        <is>
+          <t>Материал корпуса</t>
+        </is>
+      </c>
+      <c r="DJ2" t="inlineStr">
+        <is>
+          <t>Размеры</t>
+        </is>
+      </c>
+      <c r="DK2" t="inlineStr">
+        <is>
+          <t>Комплектация</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
@@ -3961,7 +5782,6 @@
           <t>нет</t>
         </is>
       </c>
-      <c r="AO634" t="inlineStr"/>
       <c r="AP634" t="inlineStr">
         <is>
           <t>пластик</t>
@@ -3975,6 +5795,608 @@
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Стабилизатор Ресанта АСН-1000/1-Ц</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>https://market.yandex.ua/product--smartfon-apple-iphone-11-128gb/558168089/spec</t>
+        </is>
+      </c>
+      <c r="AI660" t="inlineStr">
+        <is>
+          <t>голосовой набор, голосовое управление</t>
+        </is>
+      </c>
+      <c r="AK660" t="inlineStr">
+        <is>
+          <t>194 г</t>
+        </is>
+      </c>
+      <c r="BF660" t="inlineStr">
+        <is>
+          <t>смартфон</t>
+        </is>
+      </c>
+      <c r="BG660" t="inlineStr">
+        <is>
+          <t>iOS 13</t>
+        </is>
+      </c>
+      <c r="BH660" t="inlineStr">
+        <is>
+          <t>классический</t>
+        </is>
+      </c>
+      <c r="BI660" t="inlineStr">
+        <is>
+          <t>влагозащита</t>
+        </is>
+      </c>
+      <c r="BJ660" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BK660" t="inlineStr">
+        <is>
+          <t>nano SIM+eSIM</t>
+        </is>
+      </c>
+      <c r="BL660" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="BM660" t="inlineStr">
+        <is>
+          <t>75.7x150.9x8.3 мм</t>
+        </is>
+      </c>
+      <c r="BN660" t="inlineStr">
+        <is>
+          <t>цветной IPS, сенсорный</t>
+        </is>
+      </c>
+      <c r="BO660" t="inlineStr">
+        <is>
+          <t>мультитач, емкостный</t>
+        </is>
+      </c>
+      <c r="BP660" t="inlineStr">
+        <is>
+          <t>6.1 дюйм.</t>
+        </is>
+      </c>
+      <c r="BQ660" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="BR660" t="inlineStr">
+        <is>
+          <t>1792x828</t>
+        </is>
+      </c>
+      <c r="BS660" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="BT660" t="inlineStr">
+        <is>
+          <t>19.5:9</t>
+        </is>
+      </c>
+      <c r="BU660" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="BV660" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BW660" t="inlineStr">
+        <is>
+          <t>12 МП, 12 МП</t>
+        </is>
+      </c>
+      <c r="BX660" t="inlineStr">
+        <is>
+          <t>F/2.40, F/1.80</t>
+        </is>
+      </c>
+      <c r="BY660" t="inlineStr">
+        <is>
+          <t>тыльная, светодиодная</t>
+        </is>
+      </c>
+      <c r="BZ660" t="inlineStr">
+        <is>
+          <t>автофокус, оптическая стабилизация, режим макросъемки, оптический Zoom 2x</t>
+        </is>
+      </c>
+      <c r="CA660" t="inlineStr">
+        <is>
+          <t>есть (HEVC, H.264)</t>
+        </is>
+      </c>
+      <c r="CB660" t="inlineStr">
+        <is>
+          <t>3840x2160</t>
+        </is>
+      </c>
+      <c r="CC660" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CD660" t="inlineStr">
+        <is>
+          <t>есть, 12 МП</t>
+        </is>
+      </c>
+      <c r="CE660" t="inlineStr">
+        <is>
+          <t>MP3, AAC, WAV, WMA, стереодинамики</t>
+        </is>
+      </c>
+      <c r="CF660" t="inlineStr">
+        <is>
+          <t>GSM 900/1800/1900, 3G, 4G LTE, LTE-A, VoLTE</t>
+        </is>
+      </c>
+      <c r="CG660" t="inlineStr">
+        <is>
+          <t>модель A2221: FDD‑LTE (диапазоны 1, 2, 3, 4, 5, 7, 8, 11, 12, 13, 17, 18, 19, 20, 21, 25, 26, 28, 29, 30, 32, 66) TD‑LTE (диапазоны 34, 38, 39, 40, 41, 42, 46, 48)</t>
+        </is>
+      </c>
+      <c r="CH660" t="inlineStr">
+        <is>
+          <t>Wi-Fi 802.11ax, Bluetooth 5.0, NFC</t>
+        </is>
+      </c>
+      <c r="CI660" t="inlineStr">
+        <is>
+          <t>A-GPS, ГЛОНАСС, GPS</t>
+        </is>
+      </c>
+      <c r="CJ660" t="inlineStr">
+        <is>
+          <t>Apple A13 Bionic</t>
+        </is>
+      </c>
+      <c r="CK660" t="inlineStr">
+        <is>
+          <t>128 ГБ</t>
+        </is>
+      </c>
+      <c r="CL660" t="inlineStr">
+        <is>
+          <t>Li-Ion</t>
+        </is>
+      </c>
+      <c r="CM660" t="inlineStr">
+        <is>
+          <t>несъемный</t>
+        </is>
+      </c>
+      <c r="CN660" t="inlineStr">
+        <is>
+          <t>65 ч</t>
+        </is>
+      </c>
+      <c r="CO660" t="inlineStr">
+        <is>
+          <t>Lightning</t>
+        </is>
+      </c>
+      <c r="CP660" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CQ660" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CR660" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CS660" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CT660" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CU660" t="inlineStr">
+        <is>
+          <t>освещенности, приближения, гироскоп, компас, барометр</t>
+        </is>
+      </c>
+      <c r="CV660" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CW660" t="inlineStr">
+        <is>
+          <t>2019-09-10</t>
+        </is>
+      </c>
+      <c r="CX660" t="inlineStr">
+        <is>
+          <t>2019-09-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>Стабилизатор Ресанта АСН-1000/1-Ц</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>https://market.yandex.ua/product--smartfon-apple-iphone-11-128gb/558168089/spec</t>
+        </is>
+      </c>
+      <c r="AI939" t="inlineStr">
+        <is>
+          <t>голосовой набор, голосовое управление</t>
+        </is>
+      </c>
+      <c r="AK939" t="inlineStr">
+        <is>
+          <t>194 г</t>
+        </is>
+      </c>
+      <c r="BF939" t="inlineStr">
+        <is>
+          <t>смартфон</t>
+        </is>
+      </c>
+      <c r="BG939" t="inlineStr">
+        <is>
+          <t>iOS 13</t>
+        </is>
+      </c>
+      <c r="BH939" t="inlineStr">
+        <is>
+          <t>классический</t>
+        </is>
+      </c>
+      <c r="BI939" t="inlineStr">
+        <is>
+          <t>влагозащита</t>
+        </is>
+      </c>
+      <c r="BJ939" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BK939" t="inlineStr">
+        <is>
+          <t>nano SIM+eSIM</t>
+        </is>
+      </c>
+      <c r="BL939" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="BM939" t="inlineStr">
+        <is>
+          <t>75.7x150.9x8.3 мм</t>
+        </is>
+      </c>
+      <c r="BN939" t="inlineStr">
+        <is>
+          <t>цветной IPS, сенсорный</t>
+        </is>
+      </c>
+      <c r="BO939" t="inlineStr">
+        <is>
+          <t>мультитач, емкостный</t>
+        </is>
+      </c>
+      <c r="BP939" t="inlineStr">
+        <is>
+          <t>6.1 дюйм.</t>
+        </is>
+      </c>
+      <c r="BQ939" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="BR939" t="inlineStr">
+        <is>
+          <t>1792x828</t>
+        </is>
+      </c>
+      <c r="BS939" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="BT939" t="inlineStr">
+        <is>
+          <t>19.5:9</t>
+        </is>
+      </c>
+      <c r="BU939" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="BV939" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="BW939" t="inlineStr">
+        <is>
+          <t>12 МП, 12 МП</t>
+        </is>
+      </c>
+      <c r="BX939" t="inlineStr">
+        <is>
+          <t>F/2.40, F/1.80</t>
+        </is>
+      </c>
+      <c r="BY939" t="inlineStr">
+        <is>
+          <t>тыльная, светодиодная</t>
+        </is>
+      </c>
+      <c r="BZ939" t="inlineStr">
+        <is>
+          <t>автофокус, оптическая стабилизация, режим макросъемки, оптический Zoom 2x</t>
+        </is>
+      </c>
+      <c r="CA939" t="inlineStr">
+        <is>
+          <t>есть (HEVC, H.264)</t>
+        </is>
+      </c>
+      <c r="CB939" t="inlineStr">
+        <is>
+          <t>3840x2160</t>
+        </is>
+      </c>
+      <c r="CC939" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CD939" t="inlineStr">
+        <is>
+          <t>есть, 12 МП</t>
+        </is>
+      </c>
+      <c r="CE939" t="inlineStr">
+        <is>
+          <t>MP3, AAC, WAV, WMA, стереодинамики</t>
+        </is>
+      </c>
+      <c r="CF939" t="inlineStr">
+        <is>
+          <t>GSM 900/1800/1900, 3G, 4G LTE, LTE-A, VoLTE</t>
+        </is>
+      </c>
+      <c r="CG939" t="inlineStr">
+        <is>
+          <t>модель A2221: FDD‑LTE (диапазоны 1, 2, 3, 4, 5, 7, 8, 11, 12, 13, 17, 18, 19, 20, 21, 25, 26, 28, 29, 30, 32, 66) TD‑LTE (диапазоны 34, 38, 39, 40, 41, 42, 46, 48)</t>
+        </is>
+      </c>
+      <c r="CH939" t="inlineStr">
+        <is>
+          <t>Wi-Fi 802.11ax, Bluetooth 5.0, NFC</t>
+        </is>
+      </c>
+      <c r="CI939" t="inlineStr">
+        <is>
+          <t>A-GPS, ГЛОНАСС, GPS</t>
+        </is>
+      </c>
+      <c r="CJ939" t="inlineStr">
+        <is>
+          <t>Apple A13 Bionic</t>
+        </is>
+      </c>
+      <c r="CK939" t="inlineStr">
+        <is>
+          <t>128 ГБ</t>
+        </is>
+      </c>
+      <c r="CL939" t="inlineStr">
+        <is>
+          <t>Li-Ion</t>
+        </is>
+      </c>
+      <c r="CM939" t="inlineStr">
+        <is>
+          <t>несъемный</t>
+        </is>
+      </c>
+      <c r="CN939" t="inlineStr">
+        <is>
+          <t>65 ч</t>
+        </is>
+      </c>
+      <c r="CO939" t="inlineStr">
+        <is>
+          <t>Lightning</t>
+        </is>
+      </c>
+      <c r="CP939" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CQ939" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CR939" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CS939" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CT939" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CU939" t="inlineStr">
+        <is>
+          <t>освещенности, приближения, гироскоп, компас, барометр</t>
+        </is>
+      </c>
+      <c r="CV939" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="CW939" t="inlineStr">
+        <is>
+          <t>2019-09-10</t>
+        </is>
+      </c>
+      <c r="CX939" t="inlineStr">
+        <is>
+          <t>2019-09-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>Максимальная строка</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>Внешний аккумулятор CANYON Li-Polymer CNS-TPBP5 5000 mAh</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>https://market.yandex.kz/product--akkumuliator-canyon-cns-tpbp5/1713758741/spec</t>
+        </is>
+      </c>
+      <c r="AK1218" t="inlineStr">
+        <is>
+          <t>190 г</t>
+        </is>
+      </c>
+      <c r="BF1218" t="inlineStr">
+        <is>
+          <t>Li-Polymer</t>
+        </is>
+      </c>
+      <c r="CY1218" t="inlineStr">
+        <is>
+          <t>5000 мА⋅ч</t>
+        </is>
+      </c>
+      <c r="CZ1218" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="DA1218" t="inlineStr">
+        <is>
+          <t>micro USB или Lightning</t>
+        </is>
+      </c>
+      <c r="DB1218" t="inlineStr">
+        <is>
+          <t>5 В</t>
+        </is>
+      </c>
+      <c r="DC1218" t="inlineStr">
+        <is>
+          <t>2 А</t>
+        </is>
+      </c>
+      <c r="DD1218" t="inlineStr">
+        <is>
+          <t>2.2 А</t>
+        </is>
+      </c>
+      <c r="DE1218" t="inlineStr">
+        <is>
+          <t>USBx2</t>
+        </is>
+      </c>
+      <c r="DF1218" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="DG1218" t="inlineStr">
+        <is>
+          <t>3 ч</t>
+        </is>
+      </c>
+      <c r="DH1218" t="inlineStr">
+        <is>
+          <t>есть</t>
+        </is>
+      </c>
+      <c r="DI1218" t="inlineStr">
+        <is>
+          <t>пластик</t>
+        </is>
+      </c>
+      <c r="DJ1218" t="inlineStr">
+        <is>
+          <t>220x140x50 мм</t>
+        </is>
+      </c>
+      <c r="DK1218" t="inlineStr">
+        <is>
+          <t>кабель microUSB-USB</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
         <is>
           <t>Максимальная строка</t>
         </is>
